--- a/very_new/data.xlsx
+++ b/very_new/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/millenium/Documents/bb_models/very_new/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{317726A2-F2F1-9A46-BF23-7C39CB94D396}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CCBA5A6-ABBA-3B45-A10C-46D67EB28548}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="37360" yWindow="-1560" windowWidth="26440" windowHeight="15060" xr2:uid="{79CB0C42-E4EC-334C-97F0-C5A929240E96}"/>
+    <workbookView xWindow="2360" yWindow="440" windowWidth="26440" windowHeight="15060" xr2:uid="{79CB0C42-E4EC-334C-97F0-C5A929240E96}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -5324,8 +5324,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B493A5E-D875-2141-8139-12A6753D864C}">
   <dimension ref="A1:AN85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="AF79" sqref="AF79"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5488,8 +5488,7 @@
       <c r="M2" s="9"/>
       <c r="N2" s="9"/>
       <c r="O2" s="9">
-        <f>INDEX(platelet_b_59,MATCH($D$5,name_b_59,0))</f>
-        <v>361</v>
+        <v>24</v>
       </c>
       <c r="P2" s="9">
         <f t="shared" ref="P2:P17" si="0">INDEX(hgb_b_59,MATCH($D2,name_b_59,0))</f>
@@ -6299,7 +6298,7 @@
       </c>
       <c r="AG8" s="11"/>
       <c r="AH8" s="12">
-        <f t="shared" ref="AH7:AH8" si="12">(((AF8/(90*H8))*AD8)+I8)</f>
+        <f t="shared" ref="AH8" si="12">(((AF8/(90*H8))*AD8)+I8)</f>
         <v>34.715718157181577</v>
       </c>
       <c r="AI8" s="12">
@@ -8253,7 +8252,7 @@
       </c>
       <c r="AG25" s="11"/>
       <c r="AH25" s="12">
-        <f t="shared" ref="AH25:AH33" si="26">(((AF25/(90*H25))*AD25)+I25)</f>
+        <f t="shared" ref="AH25:AH32" si="26">(((AF25/(90*H25))*AD25)+I25)</f>
         <v>25.0519427402863</v>
       </c>
       <c r="AI25" s="12">
@@ -11316,7 +11315,7 @@
       </c>
       <c r="AG51" s="15"/>
       <c r="AH51" s="12">
-        <f t="shared" ref="AH51:AH52" si="42">((AF51/H51)+I51)</f>
+        <f t="shared" ref="AH51" si="42">((AF51/H51)+I51)</f>
         <v>31.4</v>
       </c>
       <c r="AI51" s="12">
